--- a/documents/AppliedSciences/Recursive_queries.xlsx
+++ b/documents/AppliedSciences/Recursive_queries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB10203-7D1F-6548-B759-256D0D17A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131077D6-535D-034F-A1DD-D9D226F5A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
@@ -341,7 +341,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>Recursive queries, 100 invoices</a:t>
+              <a:t>Recursive queries</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -379,7 +379,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -443,7 +443,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD4D-1C46-8545-BCD9D2CDBC83}"/>
+              <c16:uniqueId val="{00000000-197C-2949-9977-24556907EE53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -508,7 +508,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD4D-1C46-8545-BCD9D2CDBC83}"/>
+              <c16:uniqueId val="{00000001-197C-2949-9977-24556907EE53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -520,18 +520,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="337950095"/>
-        <c:axId val="337712351"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="1904329360"/>
+        <c:axId val="1910782336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337950095"/>
+        <c:axId val="1904329360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -569,7 +568,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337712351"/>
+        <c:crossAx val="1910782336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -577,12 +576,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337712351"/>
+        <c:axId val="1910782336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -628,7 +627,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337950095"/>
+        <c:crossAx val="1904329360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -723,6 +722,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>Recursive queries, 1000 invoices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -756,7 +780,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -820,7 +844,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-654B-F34E-A7D3-8FF9AC214856}"/>
+              <c16:uniqueId val="{00000000-2A3E-E944-BCF2-438D611A5C8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -885,7 +909,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-654B-F34E-A7D3-8FF9AC214856}"/>
+              <c16:uniqueId val="{00000001-2A3E-E944-BCF2-438D611A5C8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -897,18 +921,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="338149087"/>
-        <c:axId val="338150735"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="1862048160"/>
+        <c:axId val="1861762240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="338149087"/>
+        <c:axId val="1862048160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -946,7 +969,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338150735"/>
+        <c:crossAx val="1861762240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -954,12 +977,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338150735"/>
+        <c:axId val="1861762240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1005,7 +1028,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338149087"/>
+        <c:crossAx val="1862048160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1166,7 +1189,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1370,22 +1393,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1490,8 +1514,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1623,19 +1647,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1669,7 +1694,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1873,22 +1898,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1993,8 +2019,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2126,19 +2152,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2177,21 +2204,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Kaavio 1">
+        <xdr:cNvPr id="4" name="Kaavio 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D5280C-88E0-B14C-B5BA-198E87249046}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0599E05-A082-9546-B342-0ADC11F78C05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,22 +2239,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Kaavio 2">
+        <xdr:cNvPr id="5" name="Kaavio 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26919F81-AF8D-E149-A032-33E65F297645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB74CA0-BF48-3F45-B291-4F205D40E22C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C59" sqref="A54:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3510,24 +3537,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/documents/AppliedSciences/Recursive_queries.xlsx
+++ b/documents/AppliedSciences/Recursive_queries.xlsx
@@ -8,20 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131077D6-535D-034F-A1DD-D9D226F5A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76384F07-4809-6F42-9D29-7B039E02A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="8000" yWindow="15240" windowWidth="28800" windowHeight="16420" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Taul1!$A$55:$A$60</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Taul1!$B$54</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Taul1!$B$55:$B$60</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Taul1!$C$54</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Taul1!$C$55:$C$60</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -341,7 +334,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>Recursive queries</a:t>
+              <a:t>Recursive quey among 100 entities</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -741,9 +734,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Recursive queries, 1000 invoices</a:t>
+              <a:rPr lang="fi-FI" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Recursive quey among 1000 entities</a:t>
             </a:r>
+            <a:endParaRPr lang="fi-FI">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1108,6 +1106,386 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Recursive quey among 1000 entities, MariaDB/Neo4J optimized</a:t>
+            </a:r>
+            <a:endParaRPr lang="fi-FI">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16712489063867017"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Taul1!$A$55:$A$56,Taul1!$A$59:$A$60)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MariaDB 10.5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neo4J 4.1.3 Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Taul1!$B$55:$B$56,Taul1!$B$59:$B$60)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBE9-0649-8173-0D491A1C4D1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Taul1!$A$55:$A$56,Taul1!$A$59:$A$60)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>MariaDB 10.5.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neo4J 4.1.3 Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Taul1!$C$55:$C$56,Taul1!$C$59:$C$60)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBE9-0649-8173-0D491A1C4D1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="421085680"/>
+        <c:axId val="421087328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="421085680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421087328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421087328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421085680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1188,6 +1566,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -1694,6 +2112,511 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2239,15 +3162,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:colOff>787400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2267,6 +3190,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Kaavio 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB10674-3342-CD4A-A1FC-AF1463F15300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2574,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/AppliedSciences/Recursive_queries.xlsx
+++ b/documents/AppliedSciences/Recursive_queries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76384F07-4809-6F42-9D29-7B039E02A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16478F10-392B-CA41-A0AF-9E838478F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="15240" windowWidth="28800" windowHeight="16420" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
@@ -313,62 +313,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Recursive quey among 100 entities</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -714,67 +659,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Recursive quey among 1000 entities</a:t>
-            </a:r>
-            <a:endParaRPr lang="fi-FI">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1120,75 +1005,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Recursive quey among 1000 entities, MariaDB/Neo4J optimized</a:t>
-            </a:r>
-            <a:endParaRPr lang="fi-FI">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16712489063867017"/>
-          <c:y val="4.6296296296296294E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1198,6 +1015,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Taul1!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1239,13 +1067,24 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBE9-0649-8173-0D491A1C4D1A}"/>
+              <c16:uniqueId val="{00000000-C81B-094E-9465-D66AFC2822BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Taul1!$C$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg indexed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1287,7 +1126,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBE9-0649-8173-0D491A1C4D1A}"/>
+              <c16:uniqueId val="{00000001-C81B-094E-9465-D66AFC2822BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1300,11 +1139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="421085680"/>
-        <c:axId val="421087328"/>
+        <c:axId val="500951967"/>
+        <c:axId val="491710879"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="421085680"/>
+        <c:axId val="500951967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1186,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421087328"/>
+        <c:crossAx val="491710879"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1355,7 +1194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421087328"/>
+        <c:axId val="491710879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1245,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421085680"/>
+        <c:crossAx val="500951967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3197,23 +3036,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Kaavio 1">
+        <xdr:cNvPr id="3" name="Kaavio 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB10674-3342-CD4A-A1FC-AF1463F15300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44DFE6A-3859-454A-97C3-6895A2D8BB94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" activeCellId="1" sqref="A54:C56 A59:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4496,24 +4335,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/documents/AppliedSciences/Recursive_queries.xlsx
+++ b/documents/AppliedSciences/Recursive_queries.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16478F10-392B-CA41-A0AF-9E838478F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8823AC7-0009-3249-BF2C-F3A166095DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="15240" windowWidth="28800" windowHeight="16420" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="30300" yWindow="13660" windowWidth="47900" windowHeight="22100" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Taul1!$A$57:$A$64</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Taul1!$B$56</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Taul1!$B$57:$B$64</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Taul1!$C$56</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Taul1!$C$57:$C$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Smallest number in resultset</t>
   </si>
@@ -129,6 +136,15 @@
   </si>
   <si>
     <t>Neo4J 4.1.3 Optimized</t>
+  </si>
+  <si>
+    <t>MySQL 8.0.29</t>
+  </si>
+  <si>
+    <t>MySQL 8.0.29 indexed</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -346,16 +362,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$24:$A$29</c:f>
+              <c:f>Taul1!$A$24:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3 Optimized</c:v>
                 </c:pt>
               </c:strCache>
@@ -363,17 +382,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$24:$B$29</c:f>
+              <c:f>Taul1!$B$24:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4473</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>852</c:v>
                 </c:pt>
               </c:numCache>
@@ -381,7 +403,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-197C-2949-9977-24556907EE53}"/>
+              <c16:uniqueId val="{00000000-0E02-7645-A317-51CC1E236029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -411,16 +433,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$24:$A$29</c:f>
+              <c:f>Taul1!$A$24:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3 Optimized</c:v>
                 </c:pt>
               </c:strCache>
@@ -428,17 +453,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$24:$C$29</c:f>
+              <c:f>Taul1!$C$24:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>869</c:v>
                 </c:pt>
               </c:numCache>
@@ -446,7 +474,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-197C-2949-9977-24556907EE53}"/>
+              <c16:uniqueId val="{00000001-0E02-7645-A317-51CC1E236029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -459,11 +487,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1904329360"/>
-        <c:axId val="1910782336"/>
+        <c:axId val="1537792416"/>
+        <c:axId val="1538017472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1904329360"/>
+        <c:axId val="1537792416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +534,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1910782336"/>
+        <c:crossAx val="1538017472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -514,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1910782336"/>
+        <c:axId val="1538017472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +593,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1904329360"/>
+        <c:crossAx val="1537792416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -671,7 +699,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$B$54</c:f>
+              <c:f>Taul1!$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -692,16 +720,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$55:$A$60</c:f>
+              <c:f>Taul1!$A$57:$A$64</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3 Optimized</c:v>
                 </c:pt>
               </c:strCache>
@@ -709,17 +740,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$55:$B$60</c:f>
+              <c:f>Taul1!$B$57:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>45004</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>79037</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1239446</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>3662</c:v>
                 </c:pt>
               </c:numCache>
@@ -727,7 +761,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A3E-E944-BCF2-438D611A5C8D}"/>
+              <c16:uniqueId val="{00000000-84E2-8E4E-B8A8-64929ABB6068}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -736,7 +770,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$C$54</c:f>
+              <c:f>Taul1!$C$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,16 +791,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$55:$A$60</c:f>
+              <c:f>Taul1!$A$57:$A$64</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3 Optimized</c:v>
                 </c:pt>
               </c:strCache>
@@ -774,17 +811,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$55:$C$60</c:f>
+              <c:f>Taul1!$C$57:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1637223</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>5117</c:v>
                 </c:pt>
               </c:numCache>
@@ -792,7 +832,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A3E-E944-BCF2-438D611A5C8D}"/>
+              <c16:uniqueId val="{00000001-84E2-8E4E-B8A8-64929ABB6068}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -805,11 +845,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1862048160"/>
-        <c:axId val="1861762240"/>
+        <c:axId val="1505843168"/>
+        <c:axId val="1505843984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1862048160"/>
+        <c:axId val="1505843168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +892,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861762240"/>
+        <c:crossAx val="1505843984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861762240"/>
+        <c:axId val="1505843984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,341 +951,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1862048160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fi-FI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Taul1!$B$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Taul1!$A$55:$A$56,Taul1!$A$59:$A$60)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>MariaDB 10.5.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Neo4J 4.1.3 Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Taul1!$B$55:$B$56,Taul1!$B$59:$B$60)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>45004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C81B-094E-9465-D66AFC2822BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Taul1!$C$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg indexed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Taul1!$A$55:$A$56,Taul1!$A$59:$A$60)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>MariaDB 10.5.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Neo4J 4.1.3 Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Taul1!$C$55:$C$56,Taul1!$C$59:$C$60)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5117</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C81B-094E-9465-D66AFC2822BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="500951967"/>
-        <c:axId val="491710879"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="500951967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="491710879"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="491710879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="500951967"/>
+        <c:crossAx val="1505843168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,46 +1111,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2455,532 +2121,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>2044700</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Kaavio 3">
+        <xdr:cNvPr id="2" name="Kaavio 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0599E05-A082-9546-B342-0ADC11F78C05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072EB946-9424-9944-8464-DD04EA2292FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,23 +2161,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Kaavio 4">
+        <xdr:cNvPr id="6" name="Kaavio 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB74CA0-BF48-3F45-B291-4F205D40E22C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E4B6CE-1E4C-7625-9CC8-684C2E3843E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,42 +2190,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Kaavio 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44DFE6A-3859-454A-97C3-6895A2D8BB94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3370,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
-  <dimension ref="A2:G60"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" activeCellId="1" sqref="A54:C56 A59:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C63" sqref="A56:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3387,12 +2512,12 @@
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -3411,8 +2536,14 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3434,8 +2565,14 @@
       <c r="G4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>7827</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3457,8 +2594,14 @@
       <c r="G5">
         <v>1061</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>7906</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3480,8 +2623,14 @@
       <c r="G7">
         <v>640</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>7831</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -3503,8 +2652,14 @@
       <c r="G8">
         <v>795</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>7835</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3526,8 +2681,14 @@
       <c r="G9">
         <v>823</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>7836</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3549,8 +2710,14 @@
       <c r="G10">
         <v>828</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>7838</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3572,8 +2739,14 @@
       <c r="G11">
         <v>864</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>7842</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3595,8 +2768,14 @@
       <c r="G12">
         <v>865</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>7842</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3618,8 +2797,14 @@
       <c r="G13">
         <v>879</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>7853</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3641,8 +2826,14 @@
       <c r="G14">
         <v>946</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>7855</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -3664,8 +2855,14 @@
       <c r="G15">
         <v>1022</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>7871</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -3687,8 +2884,14 @@
       <c r="G16">
         <v>1029</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>7898</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -3710,8 +2913,14 @@
       <c r="G18">
         <v>869</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1">
+        <v>7850</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -3740,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -3768,8 +2977,14 @@
         <f t="shared" si="0"/>
         <v>108.07</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -3791,13 +3006,19 @@
       <c r="G21">
         <v>108.070763854059</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>19.577793542685001</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -3808,7 +3029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -3821,538 +3042,674 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B26" s="10">
-        <f>D18</f>
-        <v>150</v>
+        <v>7850</v>
       </c>
       <c r="C26" s="12">
-        <f>E18</f>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B28" s="10">
-        <f>F18</f>
-        <v>852</v>
+        <f>D18</f>
+        <v>150</v>
       </c>
       <c r="C28" s="12">
-        <f>G18</f>
-        <v>869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f>E18</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10">
+        <f>F18</f>
+        <v>852</v>
+      </c>
+      <c r="C30" s="12">
+        <f>G18</f>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>24</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>44713</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>274</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>4</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>10</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="H36">
+        <v>78675</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>1</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>45500</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>12</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>1346200</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>2106919</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>5138</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <v>5828</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="H37">
+        <v>81034</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B39" s="2">
         <v>44729</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>9</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="2">
         <v>838871</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>1266295</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>2497</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>4705</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="H39">
+        <v>78714</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B40" s="2">
         <v>44811</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>1100266</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>1266889</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>2522</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>4910</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="H40">
+        <v>78770</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B41" s="2">
         <v>44817</v>
-      </c>
-      <c r="C39">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1229108</v>
-      </c>
-      <c r="E39">
-        <v>1391523</v>
-      </c>
-      <c r="F39">
-        <v>2661</v>
-      </c>
-      <c r="G39">
-        <v>4911</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="2">
-        <v>44855</v>
-      </c>
-      <c r="C40">
-        <v>11</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1302403</v>
-      </c>
-      <c r="E40">
-        <v>1508316</v>
-      </c>
-      <c r="F40">
-        <v>2793</v>
-      </c>
-      <c r="G40">
-        <v>4996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2">
-        <v>44957</v>
       </c>
       <c r="C41">
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>1304015</v>
+        <v>1229108</v>
       </c>
       <c r="E41">
-        <v>1594943</v>
+        <v>1391523</v>
       </c>
       <c r="F41">
-        <v>2901</v>
+        <v>2661</v>
       </c>
       <c r="G41">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4911</v>
+      </c>
+      <c r="H41">
+        <v>78903</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42" s="2">
-        <v>44976</v>
+        <v>44855</v>
       </c>
       <c r="C42">
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>1307775</v>
+        <v>1302403</v>
       </c>
       <c r="E42">
-        <v>1709694</v>
+        <v>1508316</v>
       </c>
       <c r="F42">
-        <v>4505</v>
+        <v>2793</v>
       </c>
       <c r="G42">
-        <v>5048</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4996</v>
+      </c>
+      <c r="H42">
+        <v>78911</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>45019</v>
+        <v>44957</v>
       </c>
       <c r="C43">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>1316084</v>
+        <v>1304015</v>
       </c>
       <c r="E43">
-        <v>1714999</v>
+        <v>1594943</v>
       </c>
       <c r="F43">
-        <v>4552</v>
+        <v>2901</v>
       </c>
       <c r="G43">
-        <v>5162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5002</v>
+      </c>
+      <c r="H43">
+        <v>78929</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
-        <v>45246</v>
+        <v>44976</v>
       </c>
       <c r="C44">
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>1327400</v>
+        <v>1307775</v>
       </c>
       <c r="E44">
-        <v>1805158</v>
+        <v>1709694</v>
       </c>
       <c r="F44">
-        <v>4652</v>
+        <v>4505</v>
       </c>
       <c r="G44">
-        <v>5163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5048</v>
+      </c>
+      <c r="H44">
+        <v>78949</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2">
-        <v>45263</v>
+        <v>45019</v>
       </c>
       <c r="C45">
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>1328523</v>
+        <v>1316084</v>
       </c>
       <c r="E45">
-        <v>2019406</v>
+        <v>1714999</v>
       </c>
       <c r="F45">
-        <v>4712</v>
+        <v>4552</v>
       </c>
       <c r="G45">
-        <v>5541</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5162</v>
+      </c>
+      <c r="H45">
+        <v>79148</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
-        <v>45374</v>
+        <v>45246</v>
       </c>
       <c r="C46">
         <v>11</v>
       </c>
       <c r="D46" s="2">
+        <v>1327400</v>
+      </c>
+      <c r="E46">
+        <v>1805158</v>
+      </c>
+      <c r="F46">
+        <v>4652</v>
+      </c>
+      <c r="G46">
+        <v>5163</v>
+      </c>
+      <c r="H46">
+        <v>79161</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45263</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1328523</v>
+      </c>
+      <c r="E47">
+        <v>2019406</v>
+      </c>
+      <c r="F47">
+        <v>4712</v>
+      </c>
+      <c r="G47">
+        <v>5541</v>
+      </c>
+      <c r="H47">
+        <v>79219</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45374</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2">
         <v>1340020</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>2095010</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <v>4834</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>5734</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="H48">
+        <v>79675</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50" s="1">
         <v>45004</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>10</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D50" s="1">
         <v>1239446</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E50" s="1">
         <v>1637223</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F50" s="1">
         <v>3662</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>5117</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="H50" s="1">
+        <v>79037</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="3">
-        <f>(F48-B48)/F48</f>
+      <c r="B51" s="3">
+        <f>(F50-B50)/F50</f>
         <v>-11.289459311851447</v>
       </c>
-      <c r="C49" s="3">
-        <f>(G48-C48)/G48</f>
+      <c r="C51" s="3">
+        <f>(G50-C50)/G50</f>
         <v>0.99804572991987495</v>
       </c>
-      <c r="D49" s="4">
-        <f>(F48-D48)/F48</f>
+      <c r="D51" s="4">
+        <f>(F50-D50)/F50</f>
         <v>-337.46149645002731</v>
       </c>
-      <c r="E49" s="3">
-        <f>(G48-E48)/G48</f>
+      <c r="E51" s="3">
+        <f>(G50-E50)/G50</f>
         <v>-318.95759233926128</v>
       </c>
-      <c r="F49" s="5">
-        <f>(F48-F48)/F48</f>
+      <c r="F51" s="5">
+        <f>(F50-F50)/F50</f>
         <v>0</v>
       </c>
-      <c r="G49" s="3">
-        <f>(G48-G48)/G48</f>
+      <c r="G51" s="3">
+        <f>(G50-G50)/G50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="6">
-        <f t="shared" ref="B50:G50" si="1">ROUND(B51,2)</f>
+      <c r="B52" s="6">
+        <f t="shared" ref="B52:G52" si="1">ROUND(B53,2)</f>
         <v>208.76</v>
       </c>
-      <c r="C50" s="7">
-        <f>ROUND(C51,2)</f>
+      <c r="C52" s="7">
+        <f>ROUND(C53,2)</f>
         <v>0.64</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D52" s="7">
         <f t="shared" si="1"/>
         <v>149799.53</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <f t="shared" si="1"/>
         <v>273613.61</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>997.6</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <f t="shared" si="1"/>
         <v>291.94</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="H52">
+        <v>263.95</v>
+      </c>
+      <c r="I52">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B53" s="2">
         <v>208.75873634413401</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>0.64031242374328401</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D53" s="2">
         <v>149799.53260357599</v>
       </c>
-      <c r="E51">
+      <c r="E53">
         <v>273613.60618362803</v>
       </c>
-      <c r="F51">
+      <c r="F53">
         <v>997.59876202810096</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>291.935198288935</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="H53">
+        <v>263.95357546356502</v>
+      </c>
+      <c r="I53">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="10">
-        <f>B48</f>
+      <c r="B57" s="10">
+        <f>B50</f>
         <v>45004</v>
       </c>
-      <c r="C55" s="12">
-        <f>C48</f>
+      <c r="C57" s="12">
+        <f>C50</f>
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="10">
-        <f>D48</f>
-        <v>1239446</v>
-      </c>
-      <c r="C57" s="12">
-        <f>E48</f>
-        <v>1637223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" s="10">
-        <f>F48</f>
-        <v>3662</v>
+        <f>H50</f>
+        <v>79037</v>
       </c>
       <c r="C59" s="12">
-        <f>G48</f>
-        <v>5117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f>I50</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="13"/>
     </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="10">
+        <f>D50</f>
+        <v>1239446</v>
+      </c>
+      <c r="C61" s="12">
+        <f>E50</f>
+        <v>1637223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="10">
+        <f>F50</f>
+        <v>3662</v>
+      </c>
+      <c r="C63" s="12">
+        <f>G50</f>
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+  <mergeCells count="24">
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
